--- a/Tables/t1_balance.xlsx
+++ b/Tables/t1_balance.xlsx
@@ -13,12 +13,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="146">
   <si>
     <t>Factor</t>
   </si>
   <si>
-    <t>N</t>
+    <t>Baseline Individual Characteristics</t>
   </si>
   <si>
     <t>Female gender (0/1)</t>
@@ -30,118 +30,235 @@
     <t>Education level</t>
   </si>
   <si>
+    <t xml:space="preserve">   Primary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Secondary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Higher</t>
+  </si>
+  <si>
+    <t>Literacy (0/1)</t>
+  </si>
+  <si>
+    <t>Married (0/1)</t>
+  </si>
+  <si>
+    <t>Has children (0/1)</t>
+  </si>
+  <si>
+    <t>Is currently employed (0/1)</t>
+  </si>
+  <si>
+    <t>Language survey was conducted in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Bemba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Nyanja</t>
+  </si>
+  <si>
+    <t>Age at first sex, mean (SD)</t>
+  </si>
+  <si>
+    <t>Lifetime sex partners (n), mean (SD)</t>
+  </si>
+  <si>
+    <t>Sex partners in last 6 months (n), mean (SD)</t>
+  </si>
+  <si>
+    <t>Frequency of sex in last month (n), mean (SD)</t>
+  </si>
+  <si>
+    <t>Has been tested for STIs (0/1)</t>
+  </si>
+  <si>
+    <t>Has experienced a male condom break (0/1)</t>
+  </si>
+  <si>
+    <t>Male condom attitudes index, mean (SD)</t>
+  </si>
+  <si>
+    <t>Used male condom at most recent sex (0/1)</t>
+  </si>
+  <si>
+    <t>Contraceptive knowledge index, mean (SD)</t>
+  </si>
+  <si>
+    <t>Modern contraceptive methods known (n), mean (SD)</t>
+  </si>
+  <si>
+    <t>Discussed contraceptive use with recent partner (0/1)</t>
+  </si>
+  <si>
+    <t>Must travel more than 30 min to get contraceptives (0/1)</t>
+  </si>
+  <si>
+    <t>Can identify a female condom (0/1)</t>
+  </si>
+  <si>
+    <t>Would be willing to try a female condom (0/1)</t>
+  </si>
+  <si>
+    <t>Female condom attitudes index, mean (SD)</t>
+  </si>
+  <si>
+    <t>Has ever used a female condom (0/1)</t>
+  </si>
+  <si>
+    <t>Used a female condom in last 6 months (0/1)</t>
+  </si>
+  <si>
+    <t>Used a female condom at most recent sex (0/1)</t>
+  </si>
+  <si>
+    <t>Ward-Level Characteristics</t>
+  </si>
+  <si>
+    <t>Ward Percentage of Population Living Below the Poverty Line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Less than 10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   10%-20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   More than 20%</t>
+  </si>
+  <si>
+    <t>Ward Population Density, mean (SD)</t>
+  </si>
+  <si>
+    <t>Joint Test for Balance</t>
+  </si>
+  <si>
+    <t>F-statistic</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>N = 1177</t>
+  </si>
+  <si>
+    <t>795 (67.5%)</t>
+  </si>
+  <si>
+    <t>21.36 (1.93)</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Literacy (0/1)</t>
-  </si>
-  <si>
-    <t>Married (0/1)</t>
-  </si>
-  <si>
-    <t>Has children (0/1)</t>
-  </si>
-  <si>
-    <t>Is currently employed (0/1)</t>
-  </si>
-  <si>
-    <t>Language survey was conducted in</t>
-  </si>
-  <si>
-    <t>Ward Percentage of Population Living Below the Poverty Line</t>
-  </si>
-  <si>
-    <t>Ward Population Density, mean (SD)</t>
-  </si>
-  <si>
-    <t>Age at first sex, mean (SD)</t>
-  </si>
-  <si>
-    <t>Lifetime sex partners (n), mean (SD)</t>
-  </si>
-  <si>
-    <t>Sex partners in last 6 months (n), mean (SD)</t>
-  </si>
-  <si>
-    <t>Frequency of sex in last month (n), mean (SD)</t>
-  </si>
-  <si>
-    <t>Has been tested for STIs (0/1)</t>
-  </si>
-  <si>
-    <t>Has experienced a male condom break (0/1)</t>
-  </si>
-  <si>
-    <t>Male condom attitudes index, mean (SD)</t>
-  </si>
-  <si>
-    <t>Used male condom at most recent sex (0/1)</t>
-  </si>
-  <si>
-    <t>Contraceptive knowledge index, mean (SD)</t>
-  </si>
-  <si>
-    <t>Modern contraceptive methods known (n), mean (SD)</t>
-  </si>
-  <si>
-    <t>Discussed contraceptive use with recent partner (0/1)</t>
-  </si>
-  <si>
-    <t>Must travel more than 30 min to get contraceptives (0/1)</t>
-  </si>
-  <si>
-    <t>Can identify a female condom (0/1)</t>
-  </si>
-  <si>
-    <t>Would be willing to try a female condom (0/1)</t>
-  </si>
-  <si>
-    <t>Female condom attitudes index, mean (SD)</t>
-  </si>
-  <si>
-    <t>Has ever used a female condom (0/1)</t>
-  </si>
-  <si>
-    <t>Used a female condom in last 6 months (0/1)</t>
-  </si>
-  <si>
-    <t>Used a female condom at most recent sex (0/1)</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Primary</t>
-  </si>
-  <si>
-    <t>Secondary</t>
-  </si>
-  <si>
-    <t>Higher</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Bemba</t>
-  </si>
-  <si>
-    <t>Nyanja</t>
-  </si>
-  <si>
-    <t>Less than 10%</t>
-  </si>
-  <si>
-    <t>10%-20%</t>
-  </si>
-  <si>
-    <t>More than 20%</t>
-  </si>
-  <si>
-    <t>treatment = 0</t>
-  </si>
-  <si>
-    <t>1187</t>
+    <t>219 (18.6%)</t>
+  </si>
+  <si>
+    <t>790 (67.1%)</t>
+  </si>
+  <si>
+    <t>168 (14.3%)</t>
+  </si>
+  <si>
+    <t>950 (80.7%)</t>
+  </si>
+  <si>
+    <t>385 (32.7%)</t>
+  </si>
+  <si>
+    <t>552 (48.3%)</t>
+  </si>
+  <si>
+    <t>255 (21.7%)</t>
+  </si>
+  <si>
+    <t>562 (47.7%)</t>
+  </si>
+  <si>
+    <t>79 (6.7%)</t>
+  </si>
+  <si>
+    <t>536 (45.5%)</t>
+  </si>
+  <si>
+    <t>17.29 (2.46)</t>
+  </si>
+  <si>
+    <t>3.54 (6.33)</t>
+  </si>
+  <si>
+    <t>1.29 (1.08)</t>
+  </si>
+  <si>
+    <t>3.43 (5.71)</t>
+  </si>
+  <si>
+    <t>939 (79.8%)</t>
+  </si>
+  <si>
+    <t>275 (23.4%)</t>
+  </si>
+  <si>
+    <t>0.11 (1.04)</t>
+  </si>
+  <si>
+    <t>508 (43.2%)</t>
+  </si>
+  <si>
+    <t>-0.36 (0.90)</t>
+  </si>
+  <si>
+    <t>3.43 (2.02)</t>
+  </si>
+  <si>
+    <t>741 (63.1%)</t>
+  </si>
+  <si>
+    <t>374 (36.3%)</t>
+  </si>
+  <si>
+    <t>625 (53.1%)</t>
+  </si>
+  <si>
+    <t>710 (60.3%)</t>
+  </si>
+  <si>
+    <t>-0.05 (0.86)</t>
+  </si>
+  <si>
+    <t>67 (5.7%)</t>
+  </si>
+  <si>
+    <t>21 (1.8%)</t>
+  </si>
+  <si>
+    <t>7 (0.6%)</t>
+  </si>
+  <si>
+    <t>N = 20</t>
+  </si>
+  <si>
+    <t>3 (15%)</t>
+  </si>
+  <si>
+    <t>9 (45%)</t>
+  </si>
+  <si>
+    <t>8 (40%)</t>
+  </si>
+  <si>
+    <t>5881.10 (6733.93)</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>N = 1187</t>
   </si>
   <si>
     <t>836 (70.4%)</t>
@@ -180,18 +297,6 @@
     <t>598 (50.4%)</t>
   </si>
   <si>
-    <t>237 (20.0%)</t>
-  </si>
-  <si>
-    <t>293 (24.7%)</t>
-  </si>
-  <si>
-    <t>657 (55.3%)</t>
-  </si>
-  <si>
-    <t>9614.10 (10341.74)</t>
-  </si>
-  <si>
     <t>17.30 (2.32)</t>
   </si>
   <si>
@@ -246,112 +351,19 @@
     <t>19 (1.6%)</t>
   </si>
   <si>
-    <t>treatment = 1</t>
-  </si>
-  <si>
-    <t>1177</t>
-  </si>
-  <si>
-    <t>795 (67.5%)</t>
-  </si>
-  <si>
-    <t>21.36 (1.93)</t>
-  </si>
-  <si>
-    <t>219 (18.6%)</t>
-  </si>
-  <si>
-    <t>790 (67.1%)</t>
-  </si>
-  <si>
-    <t>168 (14.3%)</t>
-  </si>
-  <si>
-    <t>950 (80.7%)</t>
-  </si>
-  <si>
-    <t>385 (32.7%)</t>
-  </si>
-  <si>
-    <t>552 (48.3%)</t>
-  </si>
-  <si>
-    <t>255 (21.7%)</t>
-  </si>
-  <si>
-    <t>562 (47.7%)</t>
-  </si>
-  <si>
-    <t>79 (6.7%)</t>
-  </si>
-  <si>
-    <t>536 (45.5%)</t>
-  </si>
-  <si>
-    <t>177 (15.0%)</t>
-  </si>
-  <si>
-    <t>534 (45.4%)</t>
-  </si>
-  <si>
-    <t>466 (39.6%)</t>
-  </si>
-  <si>
-    <t>5868.91 (6493.79)</t>
-  </si>
-  <si>
-    <t>17.29 (2.46)</t>
-  </si>
-  <si>
-    <t>3.54 (6.33)</t>
-  </si>
-  <si>
-    <t>1.29 (1.08)</t>
-  </si>
-  <si>
-    <t>3.43 (5.71)</t>
-  </si>
-  <si>
-    <t>939 (79.8%)</t>
-  </si>
-  <si>
-    <t>275 (23.4%)</t>
-  </si>
-  <si>
-    <t>0.11 (1.04)</t>
-  </si>
-  <si>
-    <t>508 (43.2%)</t>
-  </si>
-  <si>
-    <t>-0.36 (0.90)</t>
-  </si>
-  <si>
-    <t>3.43 (2.02)</t>
-  </si>
-  <si>
-    <t>741 (63.1%)</t>
-  </si>
-  <si>
-    <t>374 (36.3%)</t>
-  </si>
-  <si>
-    <t>625 (53.1%)</t>
-  </si>
-  <si>
-    <t>710 (60.3%)</t>
-  </si>
-  <si>
-    <t>-0.05 (0.86)</t>
-  </si>
-  <si>
-    <t>67 (5.7%)</t>
-  </si>
-  <si>
-    <t>21 (1.8%)</t>
-  </si>
-  <si>
-    <t>7 (0.6%)</t>
+    <t>4 (20%)</t>
+  </si>
+  <si>
+    <t>5 (25%)</t>
+  </si>
+  <si>
+    <t>11 (55%)</t>
+  </si>
+  <si>
+    <t>9564.00 (10541.79)</t>
+  </si>
+  <si>
+    <t>3.86</t>
   </si>
   <si>
     <t>p-value</t>
@@ -378,15 +390,12 @@
     <t>0.516</t>
   </si>
   <si>
+    <t>0.944</t>
+  </si>
+  <si>
     <t>0.657</t>
   </si>
   <si>
-    <t>0.147</t>
-  </si>
-  <si>
-    <t>0.944</t>
-  </si>
-  <si>
     <t>0.927</t>
   </si>
   <si>
@@ -396,7 +405,7 @@
     <t>0.879</t>
   </si>
   <si>
-    <t>0.033</t>
+    <t>0.033*</t>
   </si>
   <si>
     <t>0.959</t>
@@ -417,7 +426,7 @@
     <t>0.217</t>
   </si>
   <si>
-    <t>0.028</t>
+    <t>0.028*</t>
   </si>
   <si>
     <t>0.202</t>
@@ -432,7 +441,16 @@
     <t>0.193</t>
   </si>
   <si>
-    <t>0.021</t>
+    <t>0.021*</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>0.356</t>
   </si>
 </sst>
 </file>
@@ -476,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:D42"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -484,16 +502,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2">
@@ -501,16 +516,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -518,16 +530,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4">
@@ -535,16 +544,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5">
@@ -552,16 +558,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
@@ -569,526 +572,517 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
         <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>76</v>
       </c>
-      <c r="D36" t="s">
+      <c r="C37" t="s">
         <v>112</v>
       </c>
-      <c r="E36" t="s">
-        <v>139</v>
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/t1_balance.xlsx
+++ b/Tables/t1_balance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="144">
   <si>
     <t>Factor</t>
   </si>
@@ -363,9 +363,6 @@
     <t>9564.00 (10541.79)</t>
   </si>
   <si>
-    <t>3.86</t>
-  </si>
-  <si>
     <t>p-value</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
   </si>
   <si>
     <t>0.20</t>
-  </si>
-  <si>
-    <t>0.356</t>
   </si>
 </sst>
 </file>
@@ -508,7 +502,7 @@
         <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
@@ -536,7 +530,7 @@
         <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4">
@@ -550,7 +544,7 @@
         <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
@@ -564,7 +558,7 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6">
@@ -620,7 +614,7 @@
         <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
@@ -634,7 +628,7 @@
         <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
@@ -648,7 +642,7 @@
         <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -662,7 +656,7 @@
         <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
@@ -676,7 +670,7 @@
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
@@ -732,7 +726,7 @@
         <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18">
@@ -746,7 +740,7 @@
         <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19">
@@ -760,7 +754,7 @@
         <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
@@ -774,7 +768,7 @@
         <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21">
@@ -788,7 +782,7 @@
         <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22">
@@ -802,7 +796,7 @@
         <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23">
@@ -816,7 +810,7 @@
         <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
@@ -830,7 +824,7 @@
         <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25">
@@ -844,7 +838,7 @@
         <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26">
@@ -858,7 +852,7 @@
         <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27">
@@ -872,7 +866,7 @@
         <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28">
@@ -886,7 +880,7 @@
         <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29">
@@ -900,7 +894,7 @@
         <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30">
@@ -914,7 +908,7 @@
         <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31">
@@ -928,7 +922,7 @@
         <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32">
@@ -942,7 +936,7 @@
         <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33">
@@ -956,7 +950,7 @@
         <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34">
@@ -970,7 +964,7 @@
         <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35">
@@ -998,7 +992,7 @@
         <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37">
@@ -1054,7 +1048,7 @@
         <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41">
@@ -1079,10 +1073,10 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
